--- a/medicine/Enfance/Casse-Noisette_et_le_Roi_des_souris/Casse-Noisette_et_le_Roi_des_souris.xlsx
+++ b/medicine/Enfance/Casse-Noisette_et_le_Roi_des_souris/Casse-Noisette_et_le_Roi_des_souris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Casse-Noisette et le Roi des souris (ou Le Casse-noisette ou Histoire d’un casse-noisette ou encore La Noix de Kratakuk ; en allemand : Nussknacker und Mausekönig) est un conte écrit par Ernst Theodor Amadeus Hoffmann et publié à Berlin en 1816. L'œuvre est reprise dans le recueil des Frères de Saint-Sérapion en 1819.
@@ -513,7 +525,9 @@
           <t>Résumé adapté de la version de A. Dumas</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Monsieur et Madame Silverhaus ont un fils Fritz et une fille plus jeune, Marie. Leur parrain est Drosselmayer, horloger et maître en automates. Chaque Noël, il offre à la famille des automates si beaux que les parents les rangent dans une armoire inaccessible aux enfants. Cette année là, on offre à Marie le casse-noisette, qui devient son jouet favori et s'anime pendant la nuit. Une nuit, une guerre se déroule sous les yeux de la fille, opposant tous les jouets et pantins devenus l’armée du prince Casse-Noisette aux rats et souris menés par le Roi des Souris. Après avoir vaincu ce roi diabolique, Casse-Noisette emmène la fillette sur son bateau magique dans un royaume féérique peuplé de poupées et ils se marient.
 Le parrain Drosselmayer est au courant de cette aventure, relatée par Marie, au fil des étapes. On ne sait pas s'il en est le magicien instigateur ou le simple auditeur amusé.
@@ -547,17 +561,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Au cinéma
-1928 : La Petite Parade de Ladislas Starewitch, l'un des trois films des Contes de l'horloge magique.
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1928 : La Petite Parade de Ladislas Starewitch, l'un des trois films des Contes de l'horloge magique.
 1973 : The Nutcracker (Schelkunchik), film russe d'animation réalisé par Boris Stepantsev
 1979 : Nutcracker Fantasy, film japonais d'animation réalisé par Takeo Nakamura
 1986 : Nutcracker: The Motion Picture (en), film américain réalisé par Carroll Ballard
 1990 : Le Prince Casse-noisette, film canadien d'animation réalisé par Paul Schilbi
 2001 : Barbie dans Casse-noisette (Barbie in the Nutcracker), film américain d'animation réalisé par Owen Hurley
 2010 : The Nutcracker in 3D, film fantastique en 3D britanno-hongrois réalisé par Andreï Kontchalovski
-2018 : Casse-Noisette et les Quatre Royaumes (The Nutcracker and the Four Realms), film américain réalisé par Lasse Hallström et Joe Johnston
-À la télévision
-2015 : Nussknacker und Mausekönig, téléfilm allemand réalisé par Frank Stoye</t>
+2018 : Casse-Noisette et les Quatre Royaumes (The Nutcracker and the Four Realms), film américain réalisé par Lasse Hallström et Joe Johnston</t>
         </is>
       </c>
     </row>
@@ -582,10 +599,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2015 : Nussknacker und Mausekönig, téléfilm allemand réalisé par Frank Stoye</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Casse-Noisette_et_le_Roi_des_souris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Casse-Noisette_et_le_Roi_des_souris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Référence populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le livre est classé comme interdit par le système Sybil dans la série d'animation Psycho-Pass.</t>
         </is>
